--- a/data/trans_orig/IP16B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B7EA26-FB3B-4F2A-ACEA-AB1BD0743E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECD3FB8-C212-40A8-9527-D7678E11B391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F2AFB6D1-AFFF-46DF-8EEF-32A93158040D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5F116B47-8372-4D9B-BBF8-1B63AC46D9BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,111 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>2,47%</t>
   </si>
   <si>
@@ -98,9 +197,6 @@
     <t>3,04%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>97,53%</t>
   </si>
   <si>
@@ -128,64 +224,61 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -231,99 +324,6 @@
   </si>
   <si>
     <t>97,75%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
   </si>
   <si>
     <t>1,82%</t>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F70A95-68D0-4FFD-AFB5-2354D920E9DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D871E532-6120-4EE3-B259-2594A8AAF74C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -881,10 +881,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>6108</v>
+        <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -896,85 +896,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>765</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>16</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8129</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11933</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>327</v>
-      </c>
-      <c r="D5" s="7">
-        <v>240741</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16787</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>275</v>
-      </c>
-      <c r="I5" s="7">
-        <v>189519</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>46</v>
+      </c>
+      <c r="N5" s="7">
+        <v>28720</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>602</v>
-      </c>
-      <c r="N5" s="7">
-        <v>430260</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -983,54 +983,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>246849</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>191540</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>618</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>438389</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1042,13 +1042,13 @@
         <v>866</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1057,13 +1057,13 @@
         <v>1909</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1072,19 +1072,19 @@
         <v>2775</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>146</v>
@@ -1093,13 +1093,13 @@
         <v>109389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>161</v>
@@ -1108,13 +1108,13 @@
         <v>99914</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>307</v>
@@ -1123,13 +1123,13 @@
         <v>209303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1144,13 +1144,13 @@
         <v>110255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>165</v>
@@ -1159,13 +1159,13 @@
         <v>101823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>313</v>
@@ -1174,117 +1174,117 @@
         <v>212078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>1440</v>
+        <v>6108</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2021</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="7">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7">
+        <v>8129</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2142</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3582</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>236</v>
+        <v>327</v>
       </c>
       <c r="D11" s="7">
-        <v>173576</v>
+        <v>240741</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7">
+        <v>275</v>
+      </c>
+      <c r="I11" s="7">
+        <v>189519</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>602</v>
+      </c>
+      <c r="N11" s="7">
+        <v>430260</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="7">
-        <v>233</v>
-      </c>
-      <c r="I11" s="7">
-        <v>167179</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="7">
-        <v>469</v>
-      </c>
-      <c r="N11" s="7">
-        <v>340755</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1293,99 +1293,99 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>246849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="I12" s="7">
-        <v>169321</v>
+        <v>191540</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>474</v>
+        <v>618</v>
       </c>
       <c r="N12" s="7">
-        <v>344337</v>
+        <v>438389</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>765</v>
+        <v>3829</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4347</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8176</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>765</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>71</v>
@@ -1394,13 +1394,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="D14" s="7">
-        <v>11933</v>
+        <v>167246</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -1409,37 +1409,37 @@
         <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>16787</v>
+        <v>161887</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>46</v>
+        <v>431</v>
       </c>
       <c r="N14" s="7">
-        <v>28720</v>
+        <v>329133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1448,153 +1448,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>171075</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>166234</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>446</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>337309</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>3829</v>
+        <v>1440</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>4347</v>
+        <v>2142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>8176</v>
+        <v>3582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>85</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D17" s="7">
-        <v>167246</v>
+        <v>173576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I17" s="7">
-        <v>161887</v>
+        <v>167179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="N17" s="7">
-        <v>329133</v>
+        <v>340755</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,49 +1603,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>171075</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="I18" s="7">
-        <v>166234</v>
+        <v>169321</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="N18" s="7">
-        <v>337309</v>
+        <v>344337</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,7 +1668,7 @@
         <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -1704,7 +1704,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>941</v>
@@ -1716,7 +1716,7 @@
         <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>105</v>
@@ -1764,13 +1764,13 @@
         <v>715893</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>932</v>
@@ -1779,13 +1779,13 @@
         <v>645705</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>1898</v>
@@ -1794,13 +1794,13 @@
         <v>1361598</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ECD3FB8-C212-40A8-9527-D7678E11B391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4D94ED-BF1E-42F6-AE60-E44D4F005D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5F116B47-8372-4D9B-BBF8-1B63AC46D9BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22416A75-D795-4D02-9D66-84B5D0F0D686}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
   <si>
     <t>Menores según si están vacunados de la triple vírica en 2023 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -68,6 +68,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -92,202 +116,187 @@
     <t>11,65%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>3,18%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,84%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>1,26%</t>
@@ -296,82 +305,70 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>1,17%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -382,7 +379,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -478,39 +475,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -562,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,13 +670,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -688,6 +678,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -752,19 +749,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D871E532-6120-4EE3-B259-2594A8AAF74C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7727D-6735-48B4-B70D-58ADEA576750}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -881,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>765</v>
+        <v>11933</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -896,13 +913,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -911,19 +928,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>765</v>
+        <v>28720</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -932,10 +949,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>11933</v>
+        <v>765</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -947,13 +964,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -962,19 +979,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>28720</v>
+        <v>765</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -989,13 +1006,13 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -1004,13 +1021,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -1019,13 +1036,13 @@
         <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1036,25 +1053,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7">
-        <v>866</v>
+        <v>109389</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="I7" s="7">
-        <v>1909</v>
+        <v>99914</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1066,10 +1083,10 @@
         <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>307</v>
       </c>
       <c r="N7" s="7">
-        <v>2775</v>
+        <v>209303</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -1087,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>109389</v>
+        <v>866</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H8" s="7">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>99914</v>
+        <v>1909</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1117,10 +1134,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>209303</v>
+        <v>2775</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1144,13 +1161,13 @@
         <v>110255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>165</v>
@@ -1159,13 +1176,13 @@
         <v>101823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>313</v>
@@ -1174,13 +1191,13 @@
         <v>212078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1191,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="D10" s="7">
-        <v>6108</v>
+        <v>240741</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
@@ -1206,10 +1223,10 @@
         <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="I10" s="7">
-        <v>2021</v>
+        <v>189519</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -1221,10 +1238,10 @@
         <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>602</v>
       </c>
       <c r="N10" s="7">
-        <v>8129</v>
+        <v>430260</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -1233,7 +1250,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1242,49 +1259,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>240741</v>
+        <v>6108</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2021</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="7">
-        <v>275</v>
-      </c>
-      <c r="I11" s="7">
-        <v>189519</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>16</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8129</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="7">
-        <v>602</v>
-      </c>
-      <c r="N11" s="7">
-        <v>430260</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1299,13 +1316,13 @@
         <v>246849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
         <v>279</v>
@@ -1314,13 +1331,13 @@
         <v>191540</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>618</v>
@@ -1329,66 +1346,66 @@
         <v>438389</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="D13" s="7">
-        <v>3829</v>
+        <v>167246</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>217</v>
+      </c>
+      <c r="I13" s="7">
+        <v>161887</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4347</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>431</v>
+      </c>
+      <c r="N13" s="7">
+        <v>329133</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8176</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,49 +1414,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>167246</v>
+        <v>3829</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4347</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>15</v>
+      </c>
+      <c r="N14" s="7">
+        <v>8176</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="7">
-        <v>217</v>
-      </c>
-      <c r="I14" s="7">
-        <v>161887</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M14" s="7">
-        <v>431</v>
-      </c>
-      <c r="N14" s="7">
-        <v>329133</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,13 +1471,13 @@
         <v>171075</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>224</v>
@@ -1469,13 +1486,13 @@
         <v>166234</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>446</v>
@@ -1484,66 +1501,66 @@
         <v>337309</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>1440</v>
+        <v>173576</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>233</v>
+      </c>
+      <c r="I16" s="7">
+        <v>167179</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>469</v>
+      </c>
+      <c r="N16" s="7">
+        <v>340755</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2142</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3582</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,49 +1569,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>173576</v>
+        <v>1440</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2142</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3582</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>233</v>
-      </c>
-      <c r="I17" s="7">
-        <v>167179</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="7">
-        <v>469</v>
-      </c>
-      <c r="N17" s="7">
-        <v>340755</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1626,13 @@
         <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
         <v>236</v>
@@ -1624,13 +1641,13 @@
         <v>169321</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>474</v>
@@ -1639,13 +1656,13 @@
         <v>344337</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,49 +1673,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>25</v>
+        <v>941</v>
       </c>
       <c r="D19" s="7">
-        <v>13008</v>
+        <v>702885</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="7">
+        <v>914</v>
+      </c>
+      <c r="I19" s="7">
+        <v>635286</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="7">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10419</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>1855</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1338171</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="M19" s="7">
-        <v>43</v>
-      </c>
-      <c r="N19" s="7">
-        <v>23427</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,49 +1724,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>941</v>
+        <v>25</v>
       </c>
       <c r="D20" s="7">
-        <v>702885</v>
+        <v>13008</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="7">
+        <v>18</v>
+      </c>
+      <c r="I20" s="7">
+        <v>10419</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="7">
-        <v>914</v>
-      </c>
-      <c r="I20" s="7">
-        <v>635286</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>43</v>
+      </c>
+      <c r="N20" s="7">
+        <v>23427</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M20" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1338171</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,13 +1781,13 @@
         <v>715893</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>932</v>
@@ -1779,13 +1796,13 @@
         <v>645705</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>1898</v>
@@ -1794,13 +1811,18 @@
         <v>1361598</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4D94ED-BF1E-42F6-AE60-E44D4F005D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8287989B-13F5-4209-BA27-83A44B814745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22416A75-D795-4D02-9D66-84B5D0F0D686}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8899182-72AE-4232-8A00-19DAAE6AB9B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
     <t>Menores según si están vacunados de la triple vírica en 2023 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,7 +74,7 @@
     <t>93,97%</t>
   </si>
   <si>
-    <t>72,94%</t>
+    <t>72,61%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>97,4%</t>
   </si>
   <si>
-    <t>88,35%</t>
+    <t>84,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>27,06%</t>
+    <t>27,39%</t>
   </si>
   <si>
     <t>0%</t>
@@ -113,259 +113,277 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -780,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD7727D-6735-48B4-B70D-58ADEA576750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2053B8FD-DC4E-4E0F-B42D-CF572C5BA035}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1250,7 +1268,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,13 +1283,13 @@
         <v>6108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1280,13 +1298,13 @@
         <v>2021</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>16</v>
@@ -1295,13 +1313,13 @@
         <v>8129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,7 +1375,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1369,13 +1387,13 @@
         <v>167246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>217</v>
@@ -1384,13 +1402,13 @@
         <v>161887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -1399,13 +1417,13 @@
         <v>329133</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,13 +1438,13 @@
         <v>3829</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1435,13 +1453,13 @@
         <v>4347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -1450,13 +1468,13 @@
         <v>8176</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,7 +1530,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1524,10 +1542,10 @@
         <v>173576</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1539,13 +1557,13 @@
         <v>167179</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>469</v>
@@ -1554,13 +1572,13 @@
         <v>340755</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1593,13 @@
         <v>1440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1590,13 +1608,13 @@
         <v>2142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1605,13 +1623,13 @@
         <v>3582</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1697,13 @@
         <v>702885</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>914</v>
@@ -1694,13 +1712,13 @@
         <v>635286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>1855</v>
@@ -1709,13 +1727,13 @@
         <v>1338171</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1748,13 @@
         <v>13008</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -1745,13 +1763,13 @@
         <v>10419</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -1760,13 +1778,13 @@
         <v>23427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,7 +1840,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8287989B-13F5-4209-BA27-83A44B814745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0A493B-852D-4E0F-AC1D-137041D045C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F8899182-72AE-4232-8A00-19DAAE6AB9B5}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{EFF4C5B8-50E4-4CD4-B92A-034C10E5F14E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="101">
   <si>
     <t>Menores según si están vacunados de la triple vírica en 2023 (Tasa respuesta: 98,85%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,325 +65,277 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -798,8 +750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2053B8FD-DC4E-4E0F-B42D-CF572C5BA035}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1243D9-3634-4350-B519-911CF143CA4B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -916,10 +868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="D4" s="7">
-        <v>11933</v>
+        <v>113099</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -931,85 +883,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>133176</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="N4" s="7">
-        <v>28720</v>
+        <v>246276</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>765</v>
+        <v>1904</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>765</v>
+        <v>3657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1018,153 +970,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>115003</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>134930</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>360</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>249933</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="D7" s="7">
-        <v>109389</v>
+        <v>187579</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="I7" s="7">
-        <v>99914</v>
+        <v>245498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>307</v>
+        <v>602</v>
       </c>
       <c r="N7" s="7">
-        <v>209303</v>
+        <v>433077</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>866</v>
+        <v>2123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>1909</v>
+        <v>6154</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>2775</v>
+        <v>8277</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1173,153 +1125,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="D9" s="7">
-        <v>110255</v>
+        <v>189702</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>165</v>
+        <v>339</v>
       </c>
       <c r="I9" s="7">
-        <v>101823</v>
+        <v>251652</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>313</v>
+        <v>618</v>
       </c>
       <c r="N9" s="7">
-        <v>212078</v>
+        <v>441354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="D10" s="7">
-        <v>240741</v>
+        <v>183641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="I10" s="7">
-        <v>189519</v>
+        <v>178782</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>602</v>
+        <v>431</v>
       </c>
       <c r="N10" s="7">
-        <v>430260</v>
+        <v>362423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>6108</v>
+        <v>4314</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>2021</v>
+        <v>3982</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>8129</v>
+        <v>8296</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,153 +1280,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="D12" s="7">
-        <v>246849</v>
+        <v>187955</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="I12" s="7">
-        <v>191540</v>
+        <v>182764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>618</v>
+        <v>446</v>
       </c>
       <c r="N12" s="7">
-        <v>438389</v>
+        <v>370719</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>167246</v>
+        <v>163334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I13" s="7">
-        <v>161887</v>
+        <v>179725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="N13" s="7">
-        <v>329133</v>
+        <v>343059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3829</v>
+        <v>2038</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>4347</v>
+        <v>1513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>8176</v>
+        <v>3551</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,153 +1435,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>171075</v>
+        <v>165372</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>166234</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="N15" s="7">
-        <v>337309</v>
+        <v>346610</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>236</v>
+        <v>914</v>
       </c>
       <c r="D16" s="7">
-        <v>173576</v>
+        <v>647654</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
-        <v>233</v>
+        <v>941</v>
       </c>
       <c r="I16" s="7">
-        <v>167179</v>
+        <v>737181</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>469</v>
+        <v>1855</v>
       </c>
       <c r="N16" s="7">
-        <v>340755</v>
+        <v>1384834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
       <c r="D17" s="7">
-        <v>1440</v>
+        <v>10378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>2142</v>
+        <v>13403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>3582</v>
+        <v>23782</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,217 +1590,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>932</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>658032</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>236</v>
+        <v>966</v>
       </c>
       <c r="I18" s="7">
-        <v>169321</v>
+        <v>750584</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>474</v>
+        <v>1898</v>
       </c>
       <c r="N18" s="7">
-        <v>344337</v>
+        <v>1408616</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>941</v>
-      </c>
-      <c r="D19" s="7">
-        <v>702885</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="7">
-        <v>914</v>
-      </c>
-      <c r="I19" s="7">
-        <v>635286</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1338171</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>25</v>
-      </c>
-      <c r="D20" s="7">
-        <v>13008</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="7">
-        <v>18</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10419</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" s="7">
-        <v>43</v>
-      </c>
-      <c r="N20" s="7">
-        <v>23427</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>966</v>
-      </c>
-      <c r="D21" s="7">
-        <v>715893</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>932</v>
-      </c>
-      <c r="I21" s="7">
-        <v>645705</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1898</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1361598</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
